--- a/MSO5000 LCR/Data/Clean_Calc.xlsx
+++ b/MSO5000 LCR/Data/Clean_Calc.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>I [mA]</t>
+          <t>I [A]</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -480,7 +480,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2512480738027979</v>
+        <v>0.0002512480738027979</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -508,7 +508,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.502021016818301</v>
+        <v>0.000502021016818301</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -536,7 +536,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7518481776414415</v>
+        <v>0.0007518481776414415</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -564,7 +564,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>1.000267765505563</v>
+        <v>0.001000267765505563</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -592,7 +592,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1.246831039134866</v>
+        <v>0.001246831039134866</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -620,7 +620,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.491106216376509</v>
+        <v>0.001491106216376509</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
@@ -648,7 +648,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1.732682028419033</v>
+        <v>0.001732682028419033</v>
       </c>
       <c r="C8" t="n">
         <v>7</v>
@@ -676,7 +676,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>1.971170855562723</v>
+        <v>0.001971170855562723</v>
       </c>
       <c r="C9" t="n">
         <v>8</v>
@@ -704,7 +704,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>2.206211396452011</v>
+        <v>0.002206211396452011</v>
       </c>
       <c r="C10" t="n">
         <v>9</v>
@@ -732,7 +732,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>2.437470838597086</v>
+        <v>0.002437470838597086</v>
       </c>
       <c r="C11" t="n">
         <v>10</v>
@@ -760,7 +760,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>4.491102074175144</v>
+        <v>0.004491102074175144</v>
       </c>
       <c r="C12" t="n">
         <v>20</v>
@@ -788,7 +788,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>6.020330675915345</v>
+        <v>0.006020330675915344</v>
       </c>
       <c r="C13" t="n">
         <v>30</v>
@@ -816,7 +816,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>7.089765698382925</v>
+        <v>0.007089765698382925</v>
       </c>
       <c r="C14" t="n">
         <v>40</v>
@@ -844,7 +844,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>7.824789858269987</v>
+        <v>0.007824789858269987</v>
       </c>
       <c r="C15" t="n">
         <v>50</v>
@@ -872,7 +872,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>8.334021839423876</v>
+        <v>0.008334021839423876</v>
       </c>
       <c r="C16" t="n">
         <v>60</v>
@@ -900,7 +900,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="n">
-        <v>8.693711477320241</v>
+        <v>0.00869371147732024</v>
       </c>
       <c r="C17" t="n">
         <v>70</v>
@@ -928,7 +928,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>8.953709900542435</v>
+        <v>0.008953709900542435</v>
       </c>
       <c r="C18" t="n">
         <v>80</v>
@@ -956,7 +956,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="n">
-        <v>9.146065885575</v>
+        <v>0.009146065885575001</v>
       </c>
       <c r="C19" t="n">
         <v>90</v>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="n">
-        <v>9.291520335781389</v>
+        <v>0.009291520335781388</v>
       </c>
       <c r="C20" t="n">
         <v>100</v>
